--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_Verify_PlaceOrder_SelfService_MultiUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_Verify_PlaceOrder_SelfService_MultiUser.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaibhav Oza\KAMAN_ECTEST_IE_SANITY-master\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TC29_Verify_PlaceOrder_SS_MU" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
   <si>
     <t>TestCase</t>
   </si>
@@ -788,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -834,116 +839,112 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>70</v>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -952,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>101</v>
@@ -965,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>101</v>
@@ -977,8 +978,8 @@
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>101</v>
@@ -988,16 +989,20 @@
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
@@ -1006,36 +1011,32 @@
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
@@ -1044,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>101</v>
@@ -1054,38 +1055,42 @@
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1094,44 +1099,44 @@
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1140,25 +1145,21 @@
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E30" s="3"/>
@@ -1166,7 +1167,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>84</v>
@@ -1174,27 +1175,27 @@
       <c r="D31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>85</v>
@@ -1202,27 +1203,27 @@
       <c r="D33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>86</v>
@@ -1230,27 +1231,27 @@
       <c r="D35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>87</v>
@@ -1258,27 +1259,27 @@
       <c r="D37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>88</v>
@@ -1286,23 +1287,27 @@
       <c r="D39" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1311,23 +1316,23 @@
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
@@ -1342,17 +1347,11 @@
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
@@ -1360,43 +1359,43 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>92</v>
@@ -1404,42 +1403,36 @@
       <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="6" t="s">
-        <v>9</v>
+      <c r="B50" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="B51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>96</v>
+      <c r="B52" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>97</v>
@@ -1448,6 +1441,36 @@
         <v>101</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1956,6 +1979,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2152,12 +2181,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
@@ -2167,6 +2190,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2183,21 +2223,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>